--- a/src/verification/FuehrungsUTF/verification pt2.xlsx
+++ b/src/verification/FuehrungsUTF/verification pt2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Datenbox9000\ZHAW\Faecher\PA BA\PA\PA\src\verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Datenbox9000\ZHAW\Faecher\PA BA\PA\PA\src\verification\FuehrungsUTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC27B31-7D33-435F-BFCC-47494DB5B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF0B64-4F24-42E7-97AB-A6A4FC0A474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D746FB91-BCA1-49C2-8C31-678507A15C08}"/>
+    <workbookView xWindow="40995" yWindow="-7935" windowWidth="28800" windowHeight="15345" xr2:uid="{D746FB91-BCA1-49C2-8C31-678507A15C08}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>D</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>ITAE_PSO_matlab</t>
+  </si>
+  <si>
+    <t>ITAE_PSO_matlab_correct_limit</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F82E827-A20C-4A31-B950-014E50C9B08B}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,14 +471,15 @@
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -515,8 +519,11 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -556,8 +563,11 @@
       <c r="M3">
         <v>0.593894142267267</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0.593894142267267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -597,8 +607,11 @@
       <c r="M4">
         <v>0.36348910237355497</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0.36348910237355497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -638,8 +651,11 @@
       <c r="M5">
         <v>0.239527105222234</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0.239527105222234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -679,8 +695,11 @@
       <c r="M6">
         <v>0.18650665488047499</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0.18650665488047499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.7</v>
       </c>
@@ -720,8 +739,11 @@
       <c r="M7">
         <v>0.489508944679798</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0.489508944679798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -761,8 +783,11 @@
       <c r="M8">
         <v>0.33095381893868703</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0.33095381893868703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -802,8 +827,11 @@
       <c r="M9">
         <v>0.22942918416457</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0.22942918416457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -843,8 +871,11 @@
       <c r="M10">
         <v>0.18478973865874199</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0.18478973865874199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.6</v>
       </c>
@@ -884,8 +915,11 @@
       <c r="M11">
         <v>0.47921188261421299</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0.47921188261421299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.6</v>
       </c>
@@ -925,8 +959,11 @@
       <c r="M12">
         <v>0.31464439226441698</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0.31464439226441698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -966,8 +1003,11 @@
       <c r="M13">
         <v>0.22761503271264899</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0.22761503271264899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.6</v>
       </c>
@@ -1007,8 +1047,11 @@
       <c r="M14">
         <v>0.18419544951539199</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0.18419544951539199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -1048,8 +1091,11 @@
       <c r="M15">
         <v>0.43703607114981302</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>0.43703607114981302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -1089,8 +1135,11 @@
       <c r="M16">
         <v>0.30672248381948802</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>0.30672248381948802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.5</v>
       </c>
@@ -1130,8 +1179,11 @@
       <c r="M17">
         <v>0.222154344635695</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>0.222154344635695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.5</v>
       </c>
@@ -1171,8 +1223,11 @@
       <c r="M18">
         <v>0.18449919683117399</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0.18449919683117399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.4</v>
       </c>
@@ -1212,8 +1267,11 @@
       <c r="M19">
         <v>0.41875903717753699</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>0.41875903717753699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.4</v>
       </c>
@@ -1253,8 +1311,11 @@
       <c r="M20">
         <v>0.29729172146493299</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>0.29729172146493299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.4</v>
       </c>
@@ -1294,8 +1355,11 @@
       <c r="M21">
         <v>0.22046841644725901</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>0.22046841644725901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.4</v>
       </c>
@@ -1335,8 +1399,11 @@
       <c r="M22">
         <v>0.183584485631613</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>0.183584485631613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.3</v>
       </c>
@@ -1376,8 +1443,11 @@
       <c r="M23">
         <v>0.40656919315704398</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>0.40656919315704398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.3</v>
       </c>
@@ -1417,8 +1487,11 @@
       <c r="M24">
         <v>0.29009539651370603</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>0.29009539651370603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.3</v>
       </c>
@@ -1458,8 +1531,11 @@
       <c r="M25">
         <v>0.217510539962251</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>0.217510539962251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.3</v>
       </c>
@@ -1499,8 +1575,11 @@
       <c r="M26">
         <v>0.182616907283883</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>0.182616907283883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.2</v>
       </c>
@@ -1540,8 +1619,11 @@
       <c r="M27">
         <v>0.38304807882557201</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>0.38304807882557201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.2</v>
       </c>
@@ -1581,8 +1663,11 @@
       <c r="M28">
         <v>0.28506284249267599</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>0.28506284249267599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.2</v>
       </c>
@@ -1622,8 +1707,11 @@
       <c r="M29">
         <v>0.21565869219874001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>0.21565869219874001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.2</v>
       </c>
@@ -1663,8 +1751,11 @@
       <c r="M30">
         <v>0.182096221922952</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>0.182096221922952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.1</v>
       </c>
@@ -1704,8 +1795,11 @@
       <c r="M31">
         <v>0.37080955693927098</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>0.37080955693927098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.1</v>
       </c>
@@ -1745,8 +1839,11 @@
       <c r="M32">
         <v>0.27708874643139603</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>0.27708874643139603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -1786,8 +1883,11 @@
       <c r="M33">
         <v>0.21502862788918001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>0.21502862788918001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.1</v>
       </c>
@@ -1827,8 +1927,11 @@
       <c r="M34">
         <v>0.18143020790257</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>0.18143020790257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1868,8 +1971,11 @@
       <c r="M35">
         <v>0.36106083947386403</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>0.36106083947386403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1909,8 +2015,11 @@
       <c r="M36">
         <v>0.27066881612943999</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>0.27066881612943999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1950,8 +2059,11 @@
       <c r="M37">
         <v>0.21181206341080999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>0.21181206341080999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1989,6 +2101,9 @@
         <v>0.18312578600000001</v>
       </c>
       <c r="M38">
+        <v>0.18179722273788601</v>
+      </c>
+      <c r="N38">
         <v>0.18179722273788601</v>
       </c>
     </row>
